--- a/Documentos/Projeto/G5-GPR-Cronograma.xlsx
+++ b/Documentos/Projeto/G5-GPR-Cronograma.xlsx
@@ -157,7 +157,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -215,6 +215,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="7">
@@ -292,10 +298,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -341,21 +348,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -418,8 +410,27 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -716,7 +727,7 @@
   <dimension ref="A1:J1018"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -732,15 +743,15 @@
   <sheetData>
     <row r="1" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="18"/>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="21" t="s">
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="20"/>
+      <c r="F1" s="41"/>
       <c r="G1" s="18"/>
       <c r="H1" s="18"/>
       <c r="I1" s="18"/>
@@ -748,13 +759,13 @@
     </row>
     <row r="2" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="18"/>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
       <c r="I2" s="18"/>
@@ -762,15 +773,15 @@
     </row>
     <row r="3" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="18"/>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="22" t="s">
+      <c r="C3" s="41"/>
+      <c r="D3" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
       <c r="G3" s="18"/>
       <c r="H3" s="18"/>
       <c r="I3" s="18"/>
@@ -778,15 +789,15 @@
     </row>
     <row r="4" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="18"/>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="22" t="s">
+      <c r="C4" s="41"/>
+      <c r="D4" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
       <c r="I4" s="18"/>
@@ -794,493 +805,493 @@
     </row>
     <row r="5" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="18"/>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
       <c r="I5" s="18"/>
       <c r="J5" s="18"/>
     </row>
     <row r="6" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="27" t="s">
+      <c r="E6" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="28" t="s">
+      <c r="F6" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="29" t="s">
+      <c r="G6" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="29" t="s">
+      <c r="H6" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="24" t="s">
+      <c r="I6" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="J6" s="24" t="s">
+      <c r="J6" s="19" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="30">
+      <c r="A7" s="25">
         <v>1</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="32">
+      <c r="C7" s="27">
         <v>42136</v>
       </c>
-      <c r="D7" s="32">
+      <c r="D7" s="27">
         <v>42136</v>
       </c>
-      <c r="E7" s="33" t="s">
+      <c r="E7" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="34">
+      <c r="F7" s="29">
         <v>1</v>
       </c>
-      <c r="G7" s="35">
+      <c r="G7" s="30">
         <v>3</v>
       </c>
-      <c r="H7" s="35">
+      <c r="H7" s="30">
         <v>3</v>
       </c>
-      <c r="I7" s="36" t="s">
+      <c r="I7" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="J7" s="36" t="s">
+      <c r="J7" s="44" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="30">
+      <c r="A8" s="25">
         <v>2</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="32">
+      <c r="C8" s="27">
         <v>42136</v>
       </c>
-      <c r="D8" s="32">
+      <c r="D8" s="27">
         <v>42136</v>
       </c>
-      <c r="E8" s="37" t="s">
+      <c r="E8" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="34">
+      <c r="F8" s="29">
         <v>1</v>
       </c>
-      <c r="G8" s="35">
+      <c r="G8" s="30">
         <v>3</v>
       </c>
-      <c r="H8" s="35">
+      <c r="H8" s="30">
         <v>3</v>
       </c>
-      <c r="I8" s="36" t="s">
+      <c r="I8" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="J8" s="36" t="s">
+      <c r="J8" s="44" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="30">
+      <c r="A9" s="25">
         <v>3</v>
       </c>
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="32">
+      <c r="C9" s="27">
         <v>42136</v>
       </c>
-      <c r="D9" s="32">
+      <c r="D9" s="27">
         <v>42136</v>
       </c>
-      <c r="E9" s="33" t="s">
+      <c r="E9" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="34">
+      <c r="F9" s="29">
         <v>1</v>
       </c>
-      <c r="G9" s="35">
+      <c r="G9" s="30">
         <v>3</v>
       </c>
-      <c r="H9" s="35">
+      <c r="H9" s="30">
         <v>3</v>
       </c>
-      <c r="I9" s="36" t="s">
+      <c r="I9" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="J9" s="36" t="s">
+      <c r="J9" s="44" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="30">
+      <c r="A10" s="25">
         <v>4</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="32">
+      <c r="C10" s="27">
         <v>42136</v>
       </c>
-      <c r="D10" s="32">
+      <c r="D10" s="27">
         <v>42136</v>
       </c>
-      <c r="E10" s="33" t="s">
+      <c r="E10" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="40">
+      <c r="F10" s="35">
         <v>1</v>
       </c>
-      <c r="G10" s="35">
+      <c r="G10" s="30">
         <v>3</v>
       </c>
-      <c r="H10" s="35">
+      <c r="H10" s="30">
         <v>3</v>
       </c>
-      <c r="I10" s="36" t="s">
+      <c r="I10" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="J10" s="36" t="s">
+      <c r="J10" s="44" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="30">
+      <c r="A11" s="25">
         <v>5</v>
       </c>
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="32">
+      <c r="C11" s="27">
         <v>42136</v>
       </c>
-      <c r="D11" s="32">
+      <c r="D11" s="27">
         <v>42136</v>
       </c>
-      <c r="E11" s="33" t="s">
+      <c r="E11" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="34">
+      <c r="F11" s="29">
         <v>1</v>
       </c>
-      <c r="G11" s="35">
+      <c r="G11" s="30">
         <v>3</v>
       </c>
-      <c r="H11" s="35">
+      <c r="H11" s="30">
         <v>3</v>
       </c>
-      <c r="I11" s="36" t="s">
+      <c r="I11" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="J11" s="36" t="s">
+      <c r="J11" s="44" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="30">
+      <c r="A12" s="25">
         <v>6</v>
       </c>
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="32">
+      <c r="C12" s="27">
         <v>42142</v>
       </c>
-      <c r="D12" s="32">
+      <c r="D12" s="27">
         <v>42142</v>
       </c>
-      <c r="E12" s="42" t="s">
+      <c r="E12" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="34">
+      <c r="F12" s="29">
         <v>1</v>
       </c>
-      <c r="G12" s="35">
+      <c r="G12" s="30">
         <v>2</v>
       </c>
-      <c r="H12" s="35">
+      <c r="H12" s="30">
         <v>2</v>
       </c>
-      <c r="I12" s="36" t="s">
+      <c r="I12" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="J12" s="36" t="s">
+      <c r="J12" s="44" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="30">
+      <c r="A13" s="25">
         <v>7</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="32">
+      <c r="C13" s="27">
         <v>42142</v>
       </c>
-      <c r="D13" s="32" t="s">
+      <c r="D13" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="33" t="s">
+      <c r="E13" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="34">
+      <c r="F13" s="29">
         <v>1</v>
       </c>
-      <c r="G13" s="35">
+      <c r="G13" s="30">
         <v>4</v>
       </c>
-      <c r="H13" s="35">
+      <c r="H13" s="30">
         <v>5</v>
       </c>
-      <c r="I13" s="36" t="s">
+      <c r="I13" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="J13" s="36" t="s">
+      <c r="J13" s="44" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="30">
+      <c r="A14" s="25">
         <v>8</v>
       </c>
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="32">
+      <c r="C14" s="27">
         <v>42143</v>
       </c>
-      <c r="D14" s="32">
+      <c r="D14" s="27">
         <v>42143</v>
       </c>
-      <c r="E14" s="33" t="s">
+      <c r="E14" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="F14" s="34">
+      <c r="F14" s="29">
         <v>1</v>
       </c>
-      <c r="G14" s="35">
+      <c r="G14" s="30">
         <v>2</v>
       </c>
-      <c r="H14" s="35">
+      <c r="H14" s="30">
         <v>2</v>
       </c>
-      <c r="I14" s="38">
+      <c r="I14" s="33">
         <v>7</v>
       </c>
-      <c r="J14" s="36" t="s">
+      <c r="J14" s="44" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="30">
+      <c r="A15" s="25">
         <v>9</v>
       </c>
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="32">
+      <c r="C15" s="27">
         <v>42143</v>
       </c>
-      <c r="D15" s="32">
+      <c r="D15" s="27">
         <v>42143</v>
       </c>
-      <c r="E15" s="33" t="s">
+      <c r="E15" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="F15" s="34">
+      <c r="F15" s="29">
         <v>1</v>
       </c>
-      <c r="G15" s="35">
+      <c r="G15" s="30">
         <v>4.5</v>
       </c>
-      <c r="H15" s="35">
+      <c r="H15" s="30">
         <v>5</v>
       </c>
-      <c r="I15" s="38">
+      <c r="I15" s="33">
         <v>7.8</v>
       </c>
-      <c r="J15" s="36" t="s">
+      <c r="J15" s="44" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="30">
+      <c r="A16" s="25">
         <v>10</v>
       </c>
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="32">
+      <c r="C16" s="27">
         <v>42144</v>
       </c>
-      <c r="D16" s="32">
+      <c r="D16" s="27">
         <v>42144</v>
       </c>
-      <c r="E16" s="33" t="s">
+      <c r="E16" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="F16" s="34">
+      <c r="F16" s="29">
         <v>1</v>
       </c>
-      <c r="G16" s="35">
+      <c r="G16" s="30">
         <v>4.5</v>
       </c>
-      <c r="H16" s="35">
+      <c r="H16" s="30">
         <v>5</v>
       </c>
-      <c r="I16" s="36" t="s">
+      <c r="I16" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="J16" s="36" t="s">
+      <c r="J16" s="44" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="30">
+      <c r="A17" s="25">
         <v>11</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="32">
+      <c r="C17" s="27">
         <v>42144</v>
       </c>
-      <c r="D17" s="32">
+      <c r="D17" s="27">
         <v>42144</v>
       </c>
-      <c r="E17" s="33" t="s">
+      <c r="E17" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="F17" s="34">
+      <c r="F17" s="29">
         <v>1</v>
       </c>
-      <c r="G17" s="35">
+      <c r="G17" s="30">
         <v>2</v>
       </c>
-      <c r="H17" s="35">
+      <c r="H17" s="30">
         <v>1</v>
       </c>
-      <c r="I17" s="36" t="s">
+      <c r="I17" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="J17" s="36" t="s">
+      <c r="J17" s="44" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="30">
+      <c r="A18" s="25">
         <v>12</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="32">
+      <c r="C18" s="27">
         <v>42145</v>
       </c>
-      <c r="D18" s="32">
+      <c r="D18" s="27">
         <v>42145</v>
       </c>
-      <c r="E18" s="33" t="s">
+      <c r="E18" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="F18" s="34">
+      <c r="F18" s="29">
         <v>1</v>
       </c>
-      <c r="G18" s="35">
+      <c r="G18" s="30">
         <v>3</v>
       </c>
-      <c r="H18" s="35">
+      <c r="H18" s="30">
         <v>5</v>
       </c>
-      <c r="I18" s="36" t="s">
+      <c r="I18" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="J18" s="36" t="s">
+      <c r="J18" s="44" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="30">
+      <c r="A19" s="25">
         <v>13</v>
       </c>
-      <c r="B19" s="43" t="s">
+      <c r="B19" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="32">
+      <c r="C19" s="27">
         <v>42145</v>
       </c>
-      <c r="D19" s="32">
+      <c r="D19" s="27">
         <v>42145</v>
       </c>
-      <c r="E19" s="33" t="s">
+      <c r="E19" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="34">
+      <c r="F19" s="29">
         <v>1</v>
       </c>
-      <c r="G19" s="35">
+      <c r="G19" s="30">
         <v>2</v>
       </c>
-      <c r="H19" s="35">
+      <c r="H19" s="30">
         <v>4</v>
       </c>
-      <c r="I19" s="36" t="s">
+      <c r="I19" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="J19" s="36" t="s">
+      <c r="J19" s="44" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="30">
+      <c r="A20" s="25">
         <v>14</v>
       </c>
-      <c r="B20" s="31" t="s">
+      <c r="B20" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="32">
+      <c r="C20" s="27">
         <v>42145</v>
       </c>
-      <c r="D20" s="32">
+      <c r="D20" s="27">
         <v>42175</v>
       </c>
-      <c r="E20" s="33" t="s">
+      <c r="E20" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="F20" s="34">
+      <c r="F20" s="29">
         <v>0.23</v>
       </c>
-      <c r="G20" s="35">
+      <c r="G20" s="30">
         <v>35</v>
       </c>
-      <c r="H20" s="35"/>
-      <c r="I20" s="36" t="s">
+      <c r="H20" s="30"/>
+      <c r="I20" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="J20" s="36" t="s">
+      <c r="J20" s="44" t="s">
         <v>43</v>
       </c>
     </row>
@@ -7486,7 +7497,23 @@
       <formula>LEN(TRIM(B1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="J7" r:id="rId1"/>
+    <hyperlink ref="J8" r:id="rId2"/>
+    <hyperlink ref="J9" r:id="rId3"/>
+    <hyperlink ref="J10" r:id="rId4"/>
+    <hyperlink ref="J11" r:id="rId5"/>
+    <hyperlink ref="J12" r:id="rId6"/>
+    <hyperlink ref="J13" r:id="rId7"/>
+    <hyperlink ref="J14" r:id="rId8"/>
+    <hyperlink ref="J15" r:id="rId9"/>
+    <hyperlink ref="J16" r:id="rId10"/>
+    <hyperlink ref="J17" r:id="rId11"/>
+    <hyperlink ref="J18" r:id="rId12"/>
+    <hyperlink ref="J19" r:id="rId13"/>
+    <hyperlink ref="J20" r:id="rId14"/>
+  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId15"/>
 </worksheet>
 </file>
--- a/Documentos/Projeto/G5-GPR-Cronograma.xlsx
+++ b/Documentos/Projeto/G5-GPR-Cronograma.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\3DB-felipe\Documents\GitHub\QualidadeSoftware2015\Documentos\Projeto\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="20490" windowHeight="7845"/>
   </bookViews>
   <sheets>
     <sheet name="Página1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="45">
   <si>
     <t>Cronograma</t>
   </si>
@@ -151,6 +146,9 @@
   </si>
   <si>
     <t>Olhar Planilha de Custo(Documentos\Projeto\G5-PC-Planilha_Custo)</t>
+  </si>
+  <si>
+    <t>Implementação dos Casos de Teste</t>
   </si>
 </sst>
 </file>
@@ -302,7 +300,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -410,6 +408,9 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -425,7 +426,7 @@
     <xf numFmtId="10" fontId="8" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -504,7 +505,7 @@
     </a:clrScheme>
     <a:fontScheme name="Escritório">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -539,7 +540,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -716,7 +717,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -727,7 +728,7 @@
   <dimension ref="A1:J1018"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -743,15 +744,15 @@
   <sheetData>
     <row r="1" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="18"/>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="43" t="s">
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="41"/>
+      <c r="F1" s="42"/>
       <c r="G1" s="18"/>
       <c r="H1" s="18"/>
       <c r="I1" s="18"/>
@@ -759,13 +760,13 @@
     </row>
     <row r="2" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="18"/>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
       <c r="I2" s="18"/>
@@ -773,15 +774,15 @@
     </row>
     <row r="3" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="18"/>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="40" t="s">
+      <c r="C3" s="42"/>
+      <c r="D3" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
       <c r="G3" s="18"/>
       <c r="H3" s="18"/>
       <c r="I3" s="18"/>
@@ -789,15 +790,15 @@
     </row>
     <row r="4" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="18"/>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="40" t="s">
+      <c r="C4" s="42"/>
+      <c r="D4" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
       <c r="I4" s="18"/>
@@ -805,13 +806,13 @@
     </row>
     <row r="5" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="18"/>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
       <c r="I5" s="18"/>
@@ -877,7 +878,7 @@
       <c r="I7" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="J7" s="44" t="s">
+      <c r="J7" s="39" t="s">
         <v>43</v>
       </c>
     </row>
@@ -909,7 +910,7 @@
       <c r="I8" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="J8" s="44" t="s">
+      <c r="J8" s="39" t="s">
         <v>43</v>
       </c>
     </row>
@@ -941,7 +942,7 @@
       <c r="I9" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="J9" s="44" t="s">
+      <c r="J9" s="39" t="s">
         <v>43</v>
       </c>
     </row>
@@ -973,7 +974,7 @@
       <c r="I10" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="J10" s="44" t="s">
+      <c r="J10" s="39" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1005,7 +1006,7 @@
       <c r="I11" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="J11" s="44" t="s">
+      <c r="J11" s="39" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1037,7 +1038,7 @@
       <c r="I12" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="J12" s="44" t="s">
+      <c r="J12" s="39" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1069,7 +1070,7 @@
       <c r="I13" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="J13" s="44" t="s">
+      <c r="J13" s="39" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1101,7 +1102,7 @@
       <c r="I14" s="33">
         <v>7</v>
       </c>
-      <c r="J14" s="44" t="s">
+      <c r="J14" s="39" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1133,7 +1134,7 @@
       <c r="I15" s="33">
         <v>7.8</v>
       </c>
-      <c r="J15" s="44" t="s">
+      <c r="J15" s="39" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1165,7 +1166,7 @@
       <c r="I16" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="J16" s="44" t="s">
+      <c r="J16" s="39" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1197,7 +1198,7 @@
       <c r="I17" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="J17" s="44" t="s">
+      <c r="J17" s="39" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1229,7 +1230,7 @@
       <c r="I18" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="J18" s="44" t="s">
+      <c r="J18" s="39" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1246,14 +1247,14 @@
       <c r="D19" s="27">
         <v>42145</v>
       </c>
-      <c r="E19" s="28" t="s">
-        <v>22</v>
+      <c r="E19" s="37" t="s">
+        <v>20</v>
       </c>
       <c r="F19" s="29">
         <v>1</v>
       </c>
       <c r="G19" s="30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H19" s="30">
         <v>4</v>
@@ -1261,7 +1262,7 @@
       <c r="I19" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="J19" s="44" t="s">
+      <c r="J19" s="39" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1282,7 +1283,7 @@
         <v>32</v>
       </c>
       <c r="F20" s="29">
-        <v>0.23</v>
+        <v>1</v>
       </c>
       <c r="G20" s="30">
         <v>35</v>
@@ -1291,21 +1292,25 @@
       <c r="I20" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="J20" s="44" t="s">
+      <c r="J20" s="39" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="9"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
+      <c r="A21" s="25">
+        <v>15</v>
+      </c>
+      <c r="B21" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
     </row>
     <row r="22" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="9"/>
